--- a/Data/subj/subj_1__Female_binary.xlsx
+++ b/Data/subj/subj_1__Female_binary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>image</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target209.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target136.jpg</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,6 +420,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
